--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06201771603672659</v>
+        <v>0.06541609988146302</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.552731057713022</v>
+        <v>1.732288475226841</v>
       </c>
       <c r="I2" t="n">
-        <v>12.85254793380088</v>
+        <v>-12.84803484966236</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06384158743349504</v>
+        <v>0.06595803288105929</v>
       </c>
       <c r="H3" t="n">
-        <v>13.58290281488105</v>
+        <v>17.34834830656951</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02235630090973066</v>
+        <v>-0.01630143893053489</v>
       </c>
       <c r="H4" t="n">
-        <v>10.06662229471111</v>
+        <v>19.7432379859169</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01385186332428057</v>
+        <v>-0.01737438082549005</v>
       </c>
       <c r="H5" t="n">
-        <v>21.17454535752021</v>
+        <v>-51.98913302203832</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0210051004166139</v>
+        <v>-0.006857526551817841</v>
       </c>
       <c r="H6" t="n">
-        <v>87.65347923843761</v>
+        <v>38.73684529492827</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.007739765013552228</v>
+        <v>-0.006564214915726695</v>
       </c>
       <c r="H7" t="n">
-        <v>36.65476283226411</v>
+        <v>-15.899026768636</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.008476932637760939</v>
+        <v>0.003049534851035189</v>
       </c>
       <c r="H8" t="n">
-        <v>49.00140217374233</v>
+        <v>153.6025220676941</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004630135954369065</v>
+        <v>0.006552494483497295</v>
       </c>
       <c r="H9" t="n">
-        <v>-184.2893262657799</v>
+        <v>219.284908870346</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06577630440274097</v>
+        <v>-0.05976204688561625</v>
       </c>
       <c r="H10" t="n">
-        <v>4.370791903623441</v>
+        <v>5.172353237690848</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06524134427869598</v>
+        <v>-0.06801204634979652</v>
       </c>
       <c r="H11" t="n">
-        <v>1.815436530078201</v>
+        <v>-6.139385461277814</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3972139329671613</v>
+        <v>-0.383875069823512</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6615584439803174</v>
+        <v>2.718762940722252</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4172248062616956</v>
+        <v>-0.4163681986694099</v>
       </c>
       <c r="H13" t="n">
-        <v>6.402544459021506</v>
+        <v>-6.184088542560611</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02465735159720213</v>
+        <v>-0.02272436342732542</v>
       </c>
       <c r="H14" t="n">
-        <v>200.9099176537162</v>
+        <v>-177.3203886351492</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0132949199904434</v>
+        <v>-0.01173063463570371</v>
       </c>
       <c r="H15" t="n">
-        <v>-70.66348507326578</v>
+        <v>74.11523060403842</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.137508437708719</v>
+        <v>0.1443419171300175</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5548740898836407</v>
+        <v>5.551946809595822</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1417372746389531</v>
+        <v>0.1476464535448672</v>
       </c>
       <c r="H17" t="n">
-        <v>1.625170822373399</v>
+        <v>5.862033124567299</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1268486146268534</v>
+        <v>0.1265153754858295</v>
       </c>
       <c r="H18" t="n">
-        <v>7.801943255431761</v>
+        <v>7.51874089585674</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1252648304431516</v>
+        <v>0.1171332704777653</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.645567097282319</v>
+        <v>-8.9653250552344</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08282741416663104</v>
+        <v>0.08761312955697763</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.657173584850508</v>
+        <v>-1.26388435267985</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08724871334752438</v>
+        <v>0.0927195166229722</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1810612283328887</v>
+        <v>6.462768509479335</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1064423142922982</v>
+        <v>-0.09904199692640561</v>
       </c>
       <c r="H22" t="n">
-        <v>13.8625433517</v>
+        <v>-5.946340453514313</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1016519137282201</v>
+        <v>-0.1030400515177863</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2039485109578002</v>
+        <v>-1.57231318300617</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1615993524389231</v>
+        <v>0.1627560847786358</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3155302020946834</v>
+        <v>1.033591358955108</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1604419390459566</v>
+        <v>0.1653490158232516</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.951961869262559</v>
+        <v>-3.075526028323837</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09192459564650045</v>
+        <v>0.0831333107993223</v>
       </c>
       <c r="H26" t="n">
-        <v>1.401816601240665</v>
+        <v>-8.295830122068709</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09310849881279996</v>
+        <v>0.08844278774595928</v>
       </c>
       <c r="H27" t="n">
-        <v>8.313875464981518</v>
+        <v>2.886215757295472</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1381579230255935</v>
+        <v>-0.1377105337885386</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3759699388906222</v>
+        <v>-0.05092793169942775</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1360124801941434</v>
+        <v>-0.1405649722066565</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.709078417904455</v>
+        <v>-0.5473590998903427</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04203862207038923</v>
+        <v>0.0504747709955134</v>
       </c>
       <c r="H30" t="n">
-        <v>-19.18023618620253</v>
+        <v>-2.961636954169125</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05312316142195619</v>
+        <v>0.03747939438275949</v>
       </c>
       <c r="H31" t="n">
-        <v>21.23205194343895</v>
+        <v>-14.46849613243487</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1125962040287889</v>
+        <v>0.1140968152882486</v>
       </c>
       <c r="H32" t="n">
-        <v>3.580617834031561</v>
+        <v>4.961075041485894</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1244045635006974</v>
+        <v>0.1208720615263008</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2493014086583455</v>
+        <v>-2.597305220494612</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01549843517332669</v>
+        <v>-0.01532417659944549</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.7553521898313064</v>
+        <v>1.87122166951309</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01957038472988547</v>
+        <v>-0.0144018616024453</v>
       </c>
       <c r="H35" t="n">
-        <v>16.9268537042739</v>
+        <v>13.95343587258256</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04133117917227548</v>
+        <v>0.03123225943698414</v>
       </c>
       <c r="H36" t="n">
-        <v>12.41406936229465</v>
+        <v>-15.05334594844025</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03795281575063392</v>
+        <v>0.03259832273360197</v>
       </c>
       <c r="H37" t="n">
-        <v>6.353162643938718</v>
+        <v>-8.651449147130332</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09806985014867871</v>
+        <v>0.1042096727759903</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.2256526501474</v>
+        <v>3.895669543362004</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1041022446458747</v>
+        <v>0.1040239924792556</v>
       </c>
       <c r="H39" t="n">
-        <v>6.88113824143755</v>
+        <v>6.800797220294746</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03080123019151289</v>
+        <v>0.03419821709323458</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.568101804859939</v>
+        <v>1.515682467302804</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0362002285604632</v>
+        <v>0.03223725225220001</v>
       </c>
       <c r="H41" t="n">
-        <v>12.35773148026317</v>
+        <v>0.05750450344260649</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1189877180371346</v>
+        <v>0.124383150708606</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.586125983409585</v>
+        <v>2.876397039592414</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1178319337660151</v>
+        <v>0.117890355878734</v>
       </c>
       <c r="H43" t="n">
-        <v>-7.789238650795785</v>
+        <v>-7.743519741487746</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03778980794372617</v>
+        <v>0.04050944153364083</v>
       </c>
       <c r="H44" t="n">
-        <v>-4.731510684018982</v>
+        <v>2.124713194916691</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03958899544427193</v>
+        <v>0.04050944153364083</v>
       </c>
       <c r="H45" t="n">
-        <v>27.04109837811099</v>
+        <v>29.99481015783694</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05944636452472925</v>
+        <v>0.06588728875228977</v>
       </c>
       <c r="H46" t="n">
-        <v>4.996143011910799</v>
+        <v>16.37231726129659</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05822574404830908</v>
+        <v>0.06632527107476163</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.7575271864835277</v>
+        <v>13.04765648035194</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04611444362842639</v>
+        <v>0.0483458036386855</v>
       </c>
       <c r="H48" t="n">
-        <v>-6.380531706301541</v>
+        <v>-1.850525025195072</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04761234817846832</v>
+        <v>0.04402552233612568</v>
       </c>
       <c r="H49" t="n">
-        <v>4.486947500589871</v>
+        <v>-3.384466067962066</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02512776328310703</v>
+        <v>0.0276239437082732</v>
       </c>
       <c r="H50" t="n">
-        <v>-5.12986352994609</v>
+        <v>4.29449210892596</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0322160671110462</v>
+        <v>0.03442717896560511</v>
       </c>
       <c r="H51" t="n">
-        <v>14.99221292049041</v>
+        <v>22.88456813238026</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08463062931506296</v>
+        <v>-0.08735847597933077</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.637961050361607</v>
+        <v>-0.5002492562916754</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08154350703183035</v>
+        <v>-0.08233357014995947</v>
       </c>
       <c r="H53" t="n">
-        <v>1.654659620923445</v>
+        <v>-2.639576756276863</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05335356455464414</v>
+        <v>0.04594042701214705</v>
       </c>
       <c r="H54" t="n">
-        <v>6.650173805493689</v>
+        <v>-8.168187703260019</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04932570368038542</v>
+        <v>0.04692816982865802</v>
       </c>
       <c r="H55" t="n">
-        <v>-12.36447735075714</v>
+        <v>-16.6241050192608</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04815352184324471</v>
+        <v>0.04674062402866477</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.586130158404352</v>
+        <v>-5.444401756004499</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05231672239887164</v>
+        <v>0.04196317690557763</v>
       </c>
       <c r="H57" t="n">
-        <v>37.73365863428772</v>
+        <v>10.47599348937258</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05293974838096747</v>
+        <v>0.0522427165982714</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.113132156206227</v>
+        <v>-9.322961618156288</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.057183808013923</v>
+        <v>0.06170559162566217</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2990507550174988</v>
+        <v>8.230152577872827</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02865870549161437</v>
+        <v>0.0266054934979764</v>
       </c>
       <c r="H60" t="n">
-        <v>4.365280386693004</v>
+        <v>-3.111820959424944</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03475756300835543</v>
+        <v>0.03442279123370657</v>
       </c>
       <c r="H61" t="n">
-        <v>30.18874232596649</v>
+        <v>28.93481332359972</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06737473959448803</v>
+        <v>0.06220795609703562</v>
       </c>
       <c r="H62" t="n">
-        <v>7.890675410644123</v>
+        <v>-0.3831637848147654</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06296767627952125</v>
+        <v>0.06630011994870408</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.432302506952094</v>
+        <v>3.784204102542447</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02339252496615578</v>
+        <v>0.03131818373618619</v>
       </c>
       <c r="H64" t="n">
-        <v>-15.67118292454961</v>
+        <v>12.90039836423029</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03343627278929368</v>
+        <v>0.03149116796827313</v>
       </c>
       <c r="H65" t="n">
-        <v>-5.619908448451694</v>
+        <v>-11.11032815647788</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07628672498456052</v>
+        <v>0.08100650416169236</v>
       </c>
       <c r="H66" t="n">
-        <v>-1.797630015067349</v>
+        <v>4.278046992874565</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08030085675527221</v>
+        <v>0.0810668810989057</v>
       </c>
       <c r="H67" t="n">
-        <v>1.813120956108823</v>
+        <v>2.784360022603085</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01134337613356896</v>
+        <v>-0.01892728528162334</v>
       </c>
       <c r="H68" t="n">
-        <v>-47.83621624467255</v>
+        <v>12.96076186840219</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01134337613356896</v>
+        <v>-0.01879444970619375</v>
       </c>
       <c r="H69" t="n">
-        <v>-40.73877476534745</v>
+        <v>1.812114481152396</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06892593295593702</v>
+        <v>0.08098689774141177</v>
       </c>
       <c r="H70" t="n">
-        <v>-4.250737232689393</v>
+        <v>12.50389251182144</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.06683297864180232</v>
+        <v>0.0623936121545007</v>
       </c>
       <c r="H71" t="n">
-        <v>-15.84977928522484</v>
+        <v>-21.43943991882328</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1482880420688543</v>
+        <v>-0.143338017160853</v>
       </c>
       <c r="H72" t="n">
-        <v>-3.48437166981833</v>
+        <v>6.706174032169021</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.152139984713034</v>
+        <v>-0.1530682913110678</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.6111819248171791</v>
+        <v>0.004745058374733753</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1494649254079169</v>
+        <v>0.1559921072651668</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.6344060472538808</v>
+        <v>3.70492172689206</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.156954248179204</v>
+        <v>0.1547994515366237</v>
       </c>
       <c r="H75" t="n">
-        <v>4.325051083604984</v>
+        <v>2.892791221767383</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.006823822633469138</v>
+        <v>-0.01634907773615418</v>
       </c>
       <c r="H76" t="n">
-        <v>558.3767542156563</v>
+        <v>-1477.393392605875</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.008828778138584256</v>
+        <v>-0.002590994360306139</v>
       </c>
       <c r="H77" t="n">
-        <v>299.8744047826535</v>
+        <v>-17.35172312176479</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09968476132496169</v>
+        <v>0.09699144141080625</v>
       </c>
       <c r="H78" t="n">
-        <v>10.81224997524951</v>
+        <v>7.818283438902133</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09395236769070349</v>
+        <v>0.09491822157635314</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.043297731516718</v>
+        <v>-2.046558533478845</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2314224588003819</v>
+        <v>-0.222806072204085</v>
       </c>
       <c r="H80" t="n">
-        <v>6.925499095977471</v>
+        <v>-2.944418599344977</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2001115158132234</v>
+        <v>-0.2003133371677596</v>
       </c>
       <c r="H81" t="n">
-        <v>-6.101136728197787</v>
+        <v>6.006435552716151</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1684094300014511</v>
+        <v>0.1710260554611701</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4723617774216417</v>
+        <v>2.033429585932346</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1865154077277465</v>
+        <v>0.1922974437183629</v>
       </c>
       <c r="H83" t="n">
-        <v>5.957245444202447</v>
+        <v>9.241953201532763</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1137955822787339</v>
+        <v>0.1151284590473831</v>
       </c>
       <c r="H84" t="n">
-        <v>7.223129321154535</v>
+        <v>8.479023577084217</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.107649600190153</v>
+        <v>0.1163039429050668</v>
       </c>
       <c r="H85" t="n">
-        <v>2.956033429260161</v>
+        <v>11.23304324899977</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06541609988146302</v>
+        <v>0.06322124964038238</v>
       </c>
       <c r="H2" t="n">
-        <v>1.732288475226841</v>
+        <v>-1.681047665113891</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.84803484966236</v>
+        <v>-5.000064430856385</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06595803288105929</v>
+        <v>0.06149556876201699</v>
       </c>
       <c r="H3" t="n">
-        <v>17.34834830656951</v>
+        <v>9.40901520530412</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01630143893053489</v>
+        <v>-0.02316033021422086</v>
       </c>
       <c r="H4" t="n">
-        <v>19.7432379859169</v>
+        <v>-14.02509423193054</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01737438082549005</v>
+        <v>-0.01717093012244481</v>
       </c>
       <c r="H5" t="n">
-        <v>-51.98913302203832</v>
+        <v>-50.20936911107328</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.006857526551817841</v>
+        <v>-0.01019305773856364</v>
       </c>
       <c r="H6" t="n">
-        <v>38.73684529492827</v>
+        <v>8.938176405628804</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.006564214915726695</v>
+        <v>-0.005986732640786203</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.899026768636</v>
+        <v>-5.702889911296169</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003049534851035189</v>
+        <v>0.001822285315546187</v>
       </c>
       <c r="H8" t="n">
-        <v>153.6025220676941</v>
+        <v>132.0308157183518</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006552494483497295</v>
+        <v>0.007659614218980378</v>
       </c>
       <c r="H9" t="n">
-        <v>219.284908870346</v>
+        <v>239.4394739887549</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05976204688561625</v>
+        <v>-0.06640624874590992</v>
       </c>
       <c r="H10" t="n">
-        <v>5.172353237690848</v>
+        <v>-5.370358397192072</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06801204634979652</v>
+        <v>-0.06384208373839481</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.139385461277814</v>
+        <v>0.3682450648548042</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.383875069823512</v>
+        <v>-0.4098374533384486</v>
       </c>
       <c r="H12" t="n">
-        <v>2.718762940722252</v>
+        <v>-3.860598377275327</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4163681986694099</v>
+        <v>-0.4070294283374353</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.184088542560611</v>
+        <v>-3.802473378439086</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02272436342732542</v>
+        <v>-0.01433968120879874</v>
       </c>
       <c r="H14" t="n">
-        <v>-177.3203886351492</v>
+        <v>-74.99658366431328</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01173063463570371</v>
+        <v>-0.007934591074170187</v>
       </c>
       <c r="H15" t="n">
-        <v>74.11523060403842</v>
+        <v>82.49156447332913</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1443419171300175</v>
+        <v>0.1310771767301388</v>
       </c>
       <c r="H16" t="n">
-        <v>5.551946809595822</v>
+        <v>-4.1480710436375</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1476464535448672</v>
+        <v>0.1474079812310827</v>
       </c>
       <c r="H17" t="n">
-        <v>5.862033124567299</v>
+        <v>5.691049241276977</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1265153754858295</v>
+        <v>0.1248803713104605</v>
       </c>
       <c r="H18" t="n">
-        <v>7.51874089585674</v>
+        <v>6.129237133013037</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1171332704777653</v>
+        <v>0.1275621745818734</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.9653250552344</v>
+        <v>-0.8600967859713871</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08761312955697763</v>
+        <v>0.08680885261731229</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.26388435267985</v>
+        <v>-2.170268833280169</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0927195166229722</v>
+        <v>0.08872760067437924</v>
       </c>
       <c r="H21" t="n">
-        <v>6.462768509479335</v>
+        <v>1.879155058683411</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09904199692640561</v>
+        <v>-0.09386549115228399</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.946340453514313</v>
+        <v>-0.4089738805019414</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1030400515177863</v>
+        <v>-0.09673340381209043</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.57231318300617</v>
+        <v>4.644500439095458</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1627560847786358</v>
+        <v>0.155164777170661</v>
       </c>
       <c r="H24" t="n">
-        <v>1.033591358955108</v>
+        <v>-3.67884118565554</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1653490158232516</v>
+        <v>0.1667537146473687</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.075526028323837</v>
+        <v>-2.252118075525861</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0831333107993223</v>
+        <v>0.08465395912220915</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.295830122068709</v>
+        <v>-6.618406345897593</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08844278774595928</v>
+        <v>0.08601341179831895</v>
       </c>
       <c r="H27" t="n">
-        <v>2.886215757295472</v>
+        <v>0.06010291898858405</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1377105337885386</v>
+        <v>-0.1450922643496933</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05092793169942775</v>
+        <v>-5.413981665260521</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1405649722066565</v>
+        <v>-0.1413533335968777</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.5473590998903427</v>
+        <v>-1.111280925923375</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0504747709955134</v>
+        <v>0.03864033859799502</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.961636954169125</v>
+        <v>-25.71347762193184</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03747939438275949</v>
+        <v>0.04328705156343251</v>
       </c>
       <c r="H31" t="n">
-        <v>-14.46849613243487</v>
+        <v>-1.21487608891768</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1140968152882486</v>
+        <v>0.1106710050374117</v>
       </c>
       <c r="H32" t="n">
-        <v>4.961075041485894</v>
+        <v>1.809569665042512</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1208720615263008</v>
+        <v>0.1257797355280407</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.597305220494612</v>
+        <v>1.357460395584268</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01532417659944549</v>
+        <v>-0.01737526707036435</v>
       </c>
       <c r="H34" t="n">
-        <v>1.87122166951309</v>
+        <v>-11.2629915034057</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0144018616024453</v>
+        <v>-0.01568144296554796</v>
       </c>
       <c r="H35" t="n">
-        <v>13.95343587258256</v>
+        <v>6.308342282892266</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03123225943698414</v>
+        <v>0.03718370058490481</v>
       </c>
       <c r="H36" t="n">
-        <v>-15.05334594844025</v>
+        <v>1.133603744414004</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03259832273360197</v>
+        <v>0.03303677690914621</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.651449147130332</v>
+        <v>-7.422792265650033</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1042096727759903</v>
+        <v>0.1089488383339371</v>
       </c>
       <c r="H38" t="n">
-        <v>3.895669543362004</v>
+        <v>8.620555109197568</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1040239924792556</v>
+        <v>0.1044394604154137</v>
       </c>
       <c r="H39" t="n">
-        <v>6.800797220294746</v>
+        <v>7.227355610754564</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03419821709323458</v>
+        <v>0.03402023921723832</v>
       </c>
       <c r="H40" t="n">
-        <v>1.515682467302804</v>
+        <v>0.9873641196946753</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03223725225220001</v>
+        <v>0.03377146847379955</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05750450344260649</v>
+        <v>4.819382014001032</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.124383150708606</v>
+        <v>0.1181377575560425</v>
       </c>
       <c r="H42" t="n">
-        <v>2.876397039592414</v>
+        <v>-2.289122100027037</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.117890355878734</v>
+        <v>0.1156779080988015</v>
       </c>
       <c r="H43" t="n">
-        <v>-7.743519741487746</v>
+        <v>-9.474896692646407</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04050944153364083</v>
+        <v>0.03692370174260107</v>
       </c>
       <c r="H44" t="n">
-        <v>2.124713194916691</v>
+        <v>-6.914973206275338</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04050944153364083</v>
+        <v>0.03573701523118656</v>
       </c>
       <c r="H45" t="n">
-        <v>29.99481015783694</v>
+        <v>14.68009270697771</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06588728875228977</v>
+        <v>0.05882937079726518</v>
       </c>
       <c r="H46" t="n">
-        <v>16.37231726129659</v>
+        <v>3.906388202441836</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06632527107476163</v>
+        <v>0.06298862812376178</v>
       </c>
       <c r="H47" t="n">
-        <v>13.04765648035194</v>
+        <v>7.36053813149453</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0483458036386855</v>
+        <v>0.04534870153724891</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.850525025195072</v>
+        <v>-7.935106841237132</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04402552233612568</v>
+        <v>0.04345716113199896</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.384466067962066</v>
+        <v>-4.631754420016433</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0276239437082732</v>
+        <v>0.023924805248048</v>
       </c>
       <c r="H50" t="n">
-        <v>4.29449210892596</v>
+        <v>-9.671644335025631</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03442717896560511</v>
+        <v>0.03115338102962048</v>
       </c>
       <c r="H51" t="n">
-        <v>22.88456813238026</v>
+        <v>11.19905518581931</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08735847597933077</v>
+        <v>-0.08069709786939101</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.5002492562916754</v>
+        <v>7.163233341524585</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08233357014995947</v>
+        <v>-0.08142060475779567</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.639576756276863</v>
+        <v>-1.501445842311301</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04594042701214705</v>
+        <v>0.04488295905481981</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.168187703260019</v>
+        <v>-10.28199476346466</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04692816982865802</v>
+        <v>0.05540563095334069</v>
       </c>
       <c r="H55" t="n">
-        <v>-16.6241050192608</v>
+        <v>-1.562449919231653</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04674062402866477</v>
+        <v>0.04634566333794014</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.444401756004499</v>
+        <v>-6.243401452102393</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04196317690557763</v>
+        <v>0.03833916300773737</v>
       </c>
       <c r="H57" t="n">
-        <v>10.47599348937258</v>
+        <v>0.9350920298841494</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0522427165982714</v>
+        <v>0.05538559615160537</v>
       </c>
       <c r="H58" t="n">
-        <v>-9.322961618156288</v>
+        <v>-3.867904369150103</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06170559162566217</v>
+        <v>0.05711399024295274</v>
       </c>
       <c r="H59" t="n">
-        <v>8.230152577872827</v>
+        <v>0.1765920311696</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0266054934979764</v>
+        <v>0.03268136788416055</v>
       </c>
       <c r="H60" t="n">
-        <v>-3.111820959424944</v>
+        <v>19.01445177449104</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03442279123370657</v>
+        <v>0.02824109910075292</v>
       </c>
       <c r="H61" t="n">
-        <v>28.93481332359972</v>
+        <v>5.780522441868657</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06220795609703562</v>
+        <v>0.06229342704472279</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.3831637848147654</v>
+        <v>-0.2462947100033555</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06630011994870408</v>
+        <v>0.05740697711788335</v>
       </c>
       <c r="H63" t="n">
-        <v>3.784204102542447</v>
+        <v>-10.13685292391624</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03131818373618619</v>
+        <v>0.02692331558567181</v>
       </c>
       <c r="H64" t="n">
-        <v>12.90039836423029</v>
+        <v>-2.94286921255558</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03149116796827313</v>
+        <v>0.03103999355822355</v>
       </c>
       <c r="H65" t="n">
-        <v>-11.11032815647788</v>
+        <v>-12.38385174550153</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08100650416169236</v>
+        <v>0.08034480704990898</v>
       </c>
       <c r="H66" t="n">
-        <v>4.278046992874565</v>
+        <v>3.426257581250673</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0810668810989057</v>
+        <v>0.07847816782147224</v>
       </c>
       <c r="H67" t="n">
-        <v>2.784360022603085</v>
+        <v>-0.4978587317903787</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01892728528162334</v>
+        <v>-0.01870629457997228</v>
       </c>
       <c r="H68" t="n">
-        <v>12.96076186840219</v>
+        <v>13.97701232480286</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01879444970619375</v>
+        <v>-0.0250679136586608</v>
       </c>
       <c r="H69" t="n">
-        <v>1.812114481152396</v>
+        <v>-30.9623572379347</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08098689774141177</v>
+        <v>0.07197977464371674</v>
       </c>
       <c r="H70" t="n">
-        <v>12.50389251182144</v>
+        <v>-0.008457474214225375</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0623936121545007</v>
+        <v>0.07862772606337291</v>
       </c>
       <c r="H71" t="n">
-        <v>-21.43943991882328</v>
+        <v>-0.9988685676320732</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.143338017160853</v>
+        <v>-0.1504128083518064</v>
       </c>
       <c r="H72" t="n">
-        <v>6.706174032169021</v>
+        <v>2.10143377413362</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1530682913110678</v>
+        <v>-0.1567489308245939</v>
       </c>
       <c r="H73" t="n">
-        <v>0.004745058374733753</v>
+        <v>-2.399714306467275</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1559921072651668</v>
+        <v>0.1416004383461187</v>
       </c>
       <c r="H74" t="n">
-        <v>3.70492172689206</v>
+        <v>-5.862786056118964</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1547994515366237</v>
+        <v>0.15487489122891</v>
       </c>
       <c r="H75" t="n">
-        <v>2.892791221767383</v>
+        <v>2.942934813564358</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01634907773615418</v>
+        <v>-0.008653971703748556</v>
       </c>
       <c r="H76" t="n">
-        <v>-1477.393392605875</v>
+        <v>-734.9533842575183</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.002590994360306139</v>
+        <v>-0.001198252819052694</v>
       </c>
       <c r="H77" t="n">
-        <v>-17.35172312176479</v>
+        <v>45.7285453007581</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09699144141080625</v>
+        <v>0.09217150773229134</v>
       </c>
       <c r="H78" t="n">
-        <v>7.818283438902133</v>
+        <v>2.460316097167885</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09491822157635314</v>
+        <v>0.09678283561372647</v>
       </c>
       <c r="H79" t="n">
-        <v>-2.046558533478845</v>
+        <v>-0.1223193417386144</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.222806072204085</v>
+        <v>-0.223385308031304</v>
       </c>
       <c r="H80" t="n">
-        <v>-2.944418599344977</v>
+        <v>-3.212046383790419</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2003133371677596</v>
+        <v>-0.212373596833578</v>
       </c>
       <c r="H81" t="n">
-        <v>6.006435552716151</v>
+        <v>0.3473675636450159</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1710260554611701</v>
+        <v>0.1659680119698488</v>
       </c>
       <c r="H82" t="n">
-        <v>2.033429585932346</v>
+        <v>-0.9841780120601649</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1922974437183629</v>
+        <v>0.1827395951155636</v>
       </c>
       <c r="H83" t="n">
-        <v>9.241953201532763</v>
+        <v>3.812249979353979</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1151284590473831</v>
+        <v>0.1119420978731328</v>
       </c>
       <c r="H84" t="n">
-        <v>8.479023577084217</v>
+        <v>5.476695987479776</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1163039429050668</v>
+        <v>0.1131033147676417</v>
       </c>
       <c r="H85" t="n">
-        <v>11.23304324899977</v>
+        <v>8.171963812296834</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>